--- a/USDATAX/AMZN.xlsx
+++ b/USDATAX/AMZN.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="98">
   <si>
     <t>Kalem</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>İşletme Faaliyetlerinden Nakit Akışları</t>
+  </si>
+  <si>
+    <t>FAVÖK</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BX22"/>
+  <dimension ref="A1:BX23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3990,6 +3993,236 @@
       </c>
       <c r="BX22">
         <v>35525000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:76">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>217000000</v>
+      </c>
+      <c r="I23">
+        <v>154000000</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>244000000</v>
+      </c>
+      <c r="L23">
+        <v>159000000</v>
+      </c>
+      <c r="M23">
+        <v>251000000</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>394000000</v>
+      </c>
+      <c r="P23">
+        <v>270000000</v>
+      </c>
+      <c r="Q23">
+        <v>268000000</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>322000000</v>
+      </c>
+      <c r="T23">
+        <v>201000000</v>
+      </c>
+      <c r="U23">
+        <v>79000000</v>
+      </c>
+      <c r="V23">
+        <v>405000000</v>
+      </c>
+      <c r="W23">
+        <v>192000000</v>
+      </c>
+      <c r="X23">
+        <v>107000000</v>
+      </c>
+      <c r="Y23">
+        <v>-28000000</v>
+      </c>
+      <c r="Z23">
+        <v>510000000</v>
+      </c>
+      <c r="AA23">
+        <v>181000000</v>
+      </c>
+      <c r="AB23">
+        <v>79000000</v>
+      </c>
+      <c r="AC23">
+        <v>-25000000</v>
+      </c>
+      <c r="AD23">
+        <v>591000000</v>
+      </c>
+      <c r="AE23">
+        <v>146000000</v>
+      </c>
+      <c r="AF23">
+        <v>-15000000</v>
+      </c>
+      <c r="AG23">
+        <v>-544000000</v>
+      </c>
+      <c r="AH23">
+        <v>1108000000</v>
+      </c>
+      <c r="AI23">
+        <v>255000000</v>
+      </c>
+      <c r="AJ23">
+        <v>464000000</v>
+      </c>
+      <c r="AK23">
+        <v>406000000</v>
+      </c>
+      <c r="AL23">
+        <v>1255000000</v>
+      </c>
+      <c r="AM23">
+        <v>1071000000</v>
+      </c>
+      <c r="AN23">
+        <v>3194000000</v>
+      </c>
+      <c r="AO23">
+        <v>2659000000</v>
+      </c>
+      <c r="AP23">
+        <v>2127000000</v>
+      </c>
+      <c r="AQ23">
+        <v>3440000000</v>
+      </c>
+      <c r="AR23">
+        <v>3261000000</v>
+      </c>
+      <c r="AS23">
+        <v>3259000000</v>
+      </c>
+      <c r="AT23">
+        <v>3786000000</v>
+      </c>
+      <c r="AU23">
+        <v>5598000000</v>
+      </c>
+      <c r="AV23">
+        <v>6613000000</v>
+      </c>
+      <c r="AW23">
+        <v>7502000000</v>
+      </c>
+      <c r="AX23">
+        <v>3879000000</v>
+      </c>
+      <c r="AY23">
+        <v>9274000000</v>
+      </c>
+      <c r="AZ23">
+        <v>8286000000</v>
+      </c>
+      <c r="BA23">
+        <v>8720000000</v>
+      </c>
+      <c r="BB23">
+        <v>6873000000</v>
+      </c>
+      <c r="BC23">
+        <v>9351000000</v>
+      </c>
+      <c r="BD23">
+        <v>11591000000</v>
+      </c>
+      <c r="BE23">
+        <v>12717000000</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>16373000000</v>
+      </c>
+      <c r="BH23">
+        <v>15740000000</v>
+      </c>
+      <c r="BI23">
+        <v>13800000000</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>12862000000</v>
+      </c>
+      <c r="BL23">
+        <v>13033000000</v>
+      </c>
+      <c r="BM23">
+        <v>12852000000</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <v>15897000000</v>
+      </c>
+      <c r="BP23">
+        <v>19270000000</v>
+      </c>
+      <c r="BQ23">
+        <v>23319000000</v>
+      </c>
+      <c r="BR23">
+        <v>0</v>
+      </c>
+      <c r="BS23">
+        <v>26991000000</v>
+      </c>
+      <c r="BT23">
+        <v>26710000000</v>
+      </c>
+      <c r="BU23">
+        <v>30853000000</v>
+      </c>
+      <c r="BV23">
+        <v>32667000000</v>
+      </c>
+      <c r="BW23">
+        <v>34398000000</v>
+      </c>
+      <c r="BX23">
+        <v>34218000000</v>
       </c>
     </row>
   </sheetData>
@@ -5957,7 +6190,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BX8"/>
+  <dimension ref="A1:BX9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6982,6 +7215,236 @@
       </c>
       <c r="BX8">
         <v>-88670000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:76">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>217000000</v>
+      </c>
+      <c r="I9">
+        <v>154000000</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>244000000</v>
+      </c>
+      <c r="L9">
+        <v>159000000</v>
+      </c>
+      <c r="M9">
+        <v>251000000</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>394000000</v>
+      </c>
+      <c r="P9">
+        <v>270000000</v>
+      </c>
+      <c r="Q9">
+        <v>268000000</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>322000000</v>
+      </c>
+      <c r="T9">
+        <v>201000000</v>
+      </c>
+      <c r="U9">
+        <v>79000000</v>
+      </c>
+      <c r="V9">
+        <v>405000000</v>
+      </c>
+      <c r="W9">
+        <v>192000000</v>
+      </c>
+      <c r="X9">
+        <v>107000000</v>
+      </c>
+      <c r="Y9">
+        <v>-28000000</v>
+      </c>
+      <c r="Z9">
+        <v>510000000</v>
+      </c>
+      <c r="AA9">
+        <v>181000000</v>
+      </c>
+      <c r="AB9">
+        <v>79000000</v>
+      </c>
+      <c r="AC9">
+        <v>-25000000</v>
+      </c>
+      <c r="AD9">
+        <v>591000000</v>
+      </c>
+      <c r="AE9">
+        <v>146000000</v>
+      </c>
+      <c r="AF9">
+        <v>-15000000</v>
+      </c>
+      <c r="AG9">
+        <v>-544000000</v>
+      </c>
+      <c r="AH9">
+        <v>1108000000</v>
+      </c>
+      <c r="AI9">
+        <v>255000000</v>
+      </c>
+      <c r="AJ9">
+        <v>464000000</v>
+      </c>
+      <c r="AK9">
+        <v>406000000</v>
+      </c>
+      <c r="AL9">
+        <v>1255000000</v>
+      </c>
+      <c r="AM9">
+        <v>1071000000</v>
+      </c>
+      <c r="AN9">
+        <v>3194000000</v>
+      </c>
+      <c r="AO9">
+        <v>2659000000</v>
+      </c>
+      <c r="AP9">
+        <v>2127000000</v>
+      </c>
+      <c r="AQ9">
+        <v>3440000000</v>
+      </c>
+      <c r="AR9">
+        <v>3261000000</v>
+      </c>
+      <c r="AS9">
+        <v>3259000000</v>
+      </c>
+      <c r="AT9">
+        <v>3786000000</v>
+      </c>
+      <c r="AU9">
+        <v>5598000000</v>
+      </c>
+      <c r="AV9">
+        <v>6613000000</v>
+      </c>
+      <c r="AW9">
+        <v>7502000000</v>
+      </c>
+      <c r="AX9">
+        <v>3879000000</v>
+      </c>
+      <c r="AY9">
+        <v>9274000000</v>
+      </c>
+      <c r="AZ9">
+        <v>8286000000</v>
+      </c>
+      <c r="BA9">
+        <v>8720000000</v>
+      </c>
+      <c r="BB9">
+        <v>6873000000</v>
+      </c>
+      <c r="BC9">
+        <v>9351000000</v>
+      </c>
+      <c r="BD9">
+        <v>11591000000</v>
+      </c>
+      <c r="BE9">
+        <v>12717000000</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>16373000000</v>
+      </c>
+      <c r="BH9">
+        <v>15740000000</v>
+      </c>
+      <c r="BI9">
+        <v>13800000000</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>12862000000</v>
+      </c>
+      <c r="BL9">
+        <v>13033000000</v>
+      </c>
+      <c r="BM9">
+        <v>12852000000</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>15897000000</v>
+      </c>
+      <c r="BP9">
+        <v>19270000000</v>
+      </c>
+      <c r="BQ9">
+        <v>23319000000</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>26991000000</v>
+      </c>
+      <c r="BT9">
+        <v>26710000000</v>
+      </c>
+      <c r="BU9">
+        <v>30853000000</v>
+      </c>
+      <c r="BV9">
+        <v>32667000000</v>
+      </c>
+      <c r="BW9">
+        <v>34398000000</v>
+      </c>
+      <c r="BX9">
+        <v>34218000000</v>
       </c>
     </row>
   </sheetData>
